--- a/static/template/返回参数说明.xlsx
+++ b/static/template/返回参数说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="7730"/>
+    <workbookView windowWidth="22488" windowHeight="9492"/>
   </bookViews>
   <sheets>
     <sheet name="SheetJS" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
   <si>
     <t>名称</t>
-  </si>
-  <si>
-    <t>必填</t>
   </si>
   <si>
     <t>类型</t>
@@ -27,18 +24,27 @@
   <si>
     <t>说明</t>
   </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>BigDecimal</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -47,23 +53,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -78,6 +84,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -87,12 +108,65 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -100,15 +174,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,28 +188,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -152,28 +196,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,14 +207,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,49 +221,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,145 +405,52 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -416,11 +469,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -440,41 +508,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,167 +527,166 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1031,33 +1070,61 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="A2" sqref="$A2:$XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="3" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="16.7" customWidth="1"/>
+    <col min="3" max="3" width="19.6" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3 B4">
+      <formula1>"Long,String,BigDecimal"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:D1" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>